--- a/Data/Input/InputData.xlsx
+++ b/Data/Input/InputData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucia\Desktop\Automation Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucia\Desktop\TripPlanner_Final\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5408D7-6429-4FF3-918F-961696FF688A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FBD78A-F127-4061-9E50-0F4097A06CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>ClientEmail</t>
   </si>
@@ -48,12 +48,6 @@
     <t>Cooking Class</t>
   </si>
   <si>
-    <t>Brasov</t>
-  </si>
-  <si>
-    <t>Hiking</t>
-  </si>
-  <si>
     <t>Paris</t>
   </si>
   <si>
@@ -102,16 +96,13 @@
     <t>Tapas Tour</t>
   </si>
   <si>
-    <t>Vaslui</t>
-  </si>
-  <si>
-    <t>Scuba Diving</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
     <t>Pizza Making</t>
+  </si>
+  <si>
+    <t>Dance</t>
+  </si>
+  <si>
+    <t>Naples</t>
   </si>
 </sst>
 </file>
@@ -429,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,10 +468,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>4.5</v>
@@ -491,10 +482,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -505,10 +496,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -519,10 +510,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>4.8</v>
@@ -533,10 +524,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -547,10 +538,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>4.2</v>
@@ -561,10 +552,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -575,10 +566,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>4.5</v>
@@ -589,10 +580,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>4.5999999999999996</v>
@@ -606,23 +597,9 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13">
         <v>4.9000000000000004</v>
       </c>
     </row>
